--- a/web005_myBatis_project/쿼리테스트 분석.xlsx
+++ b/web005_myBatis_project/쿼리테스트 분석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse_web\workspace_web\web005_myBatis_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC967B7F-C9F1-4B5B-8C56-A0033DD50A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5330DC-7F49-44D2-B513-D986A3A990FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845" activeTab="1" xr2:uid="{ADC119D5-C510-4925-8F7A-32F976C9CD55}"/>
   </bookViews>
@@ -818,9 +818,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBAB998-70B0-4CF6-9AD1-B692FC4BCE78}">
   <dimension ref="B1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
